--- a/runs/CNNParameterTuning/DifferentKernelNums.xlsx
+++ b/runs/CNNParameterTuning/DifferentKernelNums.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>8kernels</t>
   </si>
@@ -31,9 +31,6 @@
   <si>
     <t>12kernels</t>
   </si>
-  <si>
-    <t>1cov_3size_1step</t>
-  </si>
 </sst>
 </file>
 
@@ -41,9 +38,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -61,9 +58,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,15 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,46 +101,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -154,22 +126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,10 +140,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +161,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,7 +211,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,13 +259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,13 +289,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,13 +331,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,85 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +420,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -434,39 +440,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,13 +459,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,155 +493,175 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,15 +1016,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F581"/>
+  <dimension ref="A1:E581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,9 +1039,6 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
